--- a/biology/Botanique/Isertia_coccinea/Isertia_coccinea.xlsx
+++ b/biology/Botanique/Isertia_coccinea/Isertia_coccinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isertia coccinea est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
-Il est connu en Guyane sous le nom de Bois-pian (Créole)[3].
+Il est connu en Guyane sous le nom de Bois-pian (Créole).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Isertia coccinea est un arbruste ou un arbre, atteignant 5-15(20) m de haut. 
 L'écorce externe est gris-brun clair, tandis que l'écorce intérieure est crème avec inclusions orange, devenant brun-noir à l'air, avec exsudat résineux rouge, aubier blanc-jaune. 
@@ -522,10 +536,10 @@
 Les inflorescences sont largement ovoïdes à sphériques, mesurant 8-13 x 5-11 cm. 
 Les fleurs ont un calice rouge quadrilobé, mesurant 6-7 x 5-6 mm
 La corolle est rouge-orange à la base, passant au jaune à la périphérie, avec un tube long de 50-70 mm, densément tomenteux abaxialement, et avec une pubescence jaune dense autour de l'embouchure adaxialement. 
-Les fruits sont largement ovoïdes, d'environ 10 mm de diamètre, et contiennent des graines longues de 0,9-1 mm[3]. 
+Les fruits sont largement ovoïdes, d'environ 10 mm de diamètre, et contiennent des graines longues de 0,9-1 mm. 
 En 1953, Lemée en propose la description suivante de Isertia coccinea :
 « [ISERTIA] coccinea Gmel. (Guettarda c. Aubl., I. flava Miq.). Arbrisseau ou arbre à rameaux ,tomenteux-ferrugineux ainsi que les pétioles, inflorescences et fleurs ; feuilles opposées ou rarement par 3, à pétiole de 0,01-0,06 et limbe de 0,14-0,38 sur 0,08-0,15, elliptiques acuminées, à base aiguë ou presque, subcoriaces glabres en dessus sauf sur la côte, menteuses- grisâtres en dessous , (poils fasciculés), avéc 18-20 paires de nervures, stipules de 5 mm. à 2 lobes aigus étalés ; panicules à pédoncule, axe et ramifications 4-gônes, bractées et bractéoles petites ; fleurs les unes sessiles, les autres pédicellées, corolle de 0,04-0,08, rouges ou jaunes, à tube cylindrique et lobes assez courts obtus ; fruit subglobuleux, à diamètre de 0,01 environ, tomenteux-ferrugineux, surmonté du calice, à 6 loges (ou noyaux) et paroi osseuse. - Maroni : camp Godebert, Charvein : (R. Benoist) ; herbier Lemée : Cayenne-Maringoins. »
-— Albert Lemée, 1953[4]</t>
+— Albert Lemée, 1953</t>
         </is>
       </c>
     </row>
@@ -553,7 +567,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Isertia coccinea est une espèce néotropicale représenté principalement sur le plateau des Guyanes, au Guyana, au Suriname, en Guyane, et au Brésil (Amapá, Pará).
 </t>
@@ -584,10 +600,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isertia coccinea est commune dans la végétation secondaire, en particulier le long des routes et des larges sentiers. Ses fleurs sont visitée et probablement pollinisée par les colibris[3].
-Son modèle de croissance a été étudié[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isertia coccinea est commune dans la végétation secondaire, en particulier le long des routes et des larges sentiers. Ses fleurs sont visitée et probablement pollinisée par les colibris.
+Son modèle de croissance a été étudié.
 </t>
         </is>
       </c>
@@ -616,9 +634,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'extrait de Isertia coccinea présente des propriétés anti-corrosives[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extrait de Isertia coccinea présente des propriétés anti-corrosives.
 </t>
         </is>
       </c>
@@ -647,9 +667,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet l'a premièrement décrit sous le nom de Guettarda coccinea et en a proposé le protologue suivant[7],[8] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet l'a premièrement décrit sous le nom de Guettarda coccinea et en a proposé le protologue suivant, : 
 « 1. GUETTARDA (coccinea)  folio ampliſſimo, ovato, acuto ; florum racemis erectis, terminalibus ; fructu coccineo. (Tabula 123.)
 Arbor trunco decem aut duodecim-pedali, ad ſummitatem ramoſo ; ramis erectis, nodotis, tetragonis ; ramusculis villoſis, rufeſcentibus, oppoſitis. Folia oppoſita, ampla, ovata, acuta, ſupernè viridia, infernè tomentoſa, ſubcinerea, nervis rufeſcentibus, petiolata. Stipula longa, lata, acuta, utrinquè intrà baſim petiolorum, decidua. Flores racemoſi, erecti, terminales ; pedicelli oppoſiti, ad baſim squamulis duabus munici. Calix purpuraſcens ; tubus luteus. Bacca rubra. Semina plurima, angulata, rugoſa.
 Floret &amp; fructum ſert quovis anni tempore.
